--- a/United Civil/36800/res.xlsx
+++ b/United Civil/36800/res.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\United Civil\36800\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A4683DD-919A-4BF6-907F-4C5E082BBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D4C7FD-871D-4CE3-A722-41188530982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="585" windowWidth="28890" windowHeight="19710" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="11070" yWindow="2850" windowWidth="26775" windowHeight="17745" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$116</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="103">
   <si>
     <t>type</t>
   </si>
@@ -47,6 +50,288 @@
   </si>
   <si>
     <t>Resource Id</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>ITP-ME-01 Piling</t>
+  </si>
+  <si>
+    <t>itp</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Preconstruction</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Postconstruction</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>1.1 - Permits and Approvals</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Ensure Permits are in place including, but not limited to:</t>
+  </si>
+  <si>
+    <t>○ Excavation Permits</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Excavation Permit</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENT - Working Party to have access and sign onto permits where required.</t>
+  </si>
+  <si>
+    <t>VERIFICATION: EPC - H</t>
+  </si>
+  <si>
+    <t>VERIFICATION: CLIENT - R</t>
+  </si>
+  <si>
+    <t>1.2 - Identification of underground services</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Use of DBYD and other methods to positively identify underground services.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Engineer to verify DBYD</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENT - DBYD / Excavation Permit Survey (if required)</t>
+  </si>
+  <si>
+    <t>1.3 - Approval of SWMS</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Submission, review, and approval of all SWMS for the works</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - SWMS Approved</t>
+  </si>
+  <si>
+    <t>VERIFICATION: CLIENT - NA</t>
+  </si>
+  <si>
+    <t>1.4 - Conformance of Materials</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - All delivered materials and procured items conform to project specifications and IFC drawings.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per Drawings and specifications</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENT - Delivery Docket</t>
+  </si>
+  <si>
+    <t>VERIFICATION: EPC - R</t>
+  </si>
+  <si>
+    <t>VERIFICATION: CLIENT - S</t>
+  </si>
+  <si>
+    <t>1.5 - Inspection Measuring and Test Equipment (IMTE) Registers</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Supply of all calibration certificates to the engineer including but not limited to:</t>
+  </si>
+  <si>
+    <t>○ Survey Equipment</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Visual</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENT - Calibration Certificates</t>
+  </si>
+  <si>
+    <t>2.1 - Survey and set out of piles</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Mark the ground in accordance with Schletter pile location</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Visual as per Schletter pile location spreadsheet.</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENT - Survey As Constructed record</t>
+  </si>
+  <si>
+    <t>○ Pile location spreadsheet</t>
+  </si>
+  <si>
+    <t>2.2 - Pile distribution to respective blocks</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Distribute colour coded piles, dimensions, and length into allocated location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA - Visual. Piles distributed as per Schletter drawings i.e., correct colour code, dimensions, and length. </t>
+  </si>
+  <si>
+    <t>○ Pile location CSV file</t>
+  </si>
+  <si>
+    <t>2.3 - Pile refusal</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Drive piles to depth until it reached point of refusal.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Record pile location and mark on the drawing</t>
+  </si>
+  <si>
+    <t>○ Record actual pile embedment depth</t>
+  </si>
+  <si>
+    <t>○ Pile refusal in accordance with Pile Refusal Procedure</t>
+  </si>
+  <si>
+    <t>○ Pile Testing Procedure</t>
+  </si>
+  <si>
+    <t>○ Piles cut and holes drilled as per Schletter documentation</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENT - Survey record</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Embedment Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Reveal Height</t>
+  </si>
+  <si>
+    <t>○ Pile test result documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ ITC Data Tracker Excel Pile Monitoring Sheet </t>
+  </si>
+  <si>
+    <t>○ 1. Schletter - ITC – Piling</t>
+  </si>
+  <si>
+    <t>○ Pile marked on the drawing</t>
+  </si>
+  <si>
+    <t>VERIFICATION: EPC - S</t>
+  </si>
+  <si>
+    <t>2.4 - Piles installation</t>
+  </si>
+  <si>
+    <t>○ Install pile within the design tolerances</t>
+  </si>
+  <si>
+    <t>○ Piles should have no damage or deformation and in correct orientation</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Install pile on correct location as per Schletter drawing</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Tolerances as per Schletter Installation Manual Section 7.2 Installation Tolerances:</t>
+  </si>
+  <si>
+    <t>○ Height difference foundation posts within one row: ±50mm</t>
+  </si>
+  <si>
+    <t>○ Piles have no damage deformation and in correct orientation.</t>
+  </si>
+  <si>
+    <t>○ North-South 3°</t>
+  </si>
+  <si>
+    <t>○ East-West ± 3°</t>
+  </si>
+  <si>
+    <t>○ Pile Twisting from axis:± 5°</t>
+  </si>
+  <si>
+    <t>○ Distance E/W: ±100mm</t>
+  </si>
+  <si>
+    <t>○ N/S: ±50mm</t>
+  </si>
+  <si>
+    <t>○ Reveal Height: ±100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERIFYING DOCUMENT - Schletter - ITC – Piling </t>
+  </si>
+  <si>
+    <t>○ Surveyset-out data</t>
+  </si>
+  <si>
+    <t>○ Pile(s) marked on the As- Constructed drawing/Red Line Mark-up</t>
+  </si>
+  <si>
+    <t>○ Punchlist</t>
+  </si>
+  <si>
+    <t>○ Survey record</t>
+  </si>
+  <si>
+    <t>2.5 - Cold Galvanising Repair, if required</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Use two coats of zinc rich galvanising paint on damage, deform, and top of piles</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Galvanising repaired as per manufacturer’s recommendation and procedure.</t>
+  </si>
+  <si>
+    <t>○ Visual</t>
+  </si>
+  <si>
+    <t>2.6 - As Constructed records – Red Line Mark-Up (RLMU) Drawings</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Engineer to compile and record changes on IFC Drawings, to be issued to Client .</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENT - RLMU Drawings</t>
+  </si>
+  <si>
+    <t>2.7 - Develop Punchlist</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - Development of punch list with PM/CM and/or Supervisor</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Punchlist closed in a timely manner</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENT - Punchlist</t>
+  </si>
+  <si>
+    <t>2.8 - Final Walk Down</t>
+  </si>
+  <si>
+    <t>PROCEDURE / INSTRUCTION - 100% visual verification required for each pile upon ITP sign off</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENT - Punchlist, if required</t>
+  </si>
+  <si>
+    <t>VERIFICATION: CLIENT - H</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
   </si>
 </sst>
 </file>
@@ -189,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +652,36 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,8 +845,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,17 +1233,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="176" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -950,7 +1276,947 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I116" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>